--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TaxationTool\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25D40C0D-98E0-48B3-8CC5-C9B9A2AA1F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7126ED86-1629-4E2B-9CA3-0A570EFD16D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16365" yWindow="3990" windowWidth="18150" windowHeight="14670" tabRatio="779" activeTab="7" xr2:uid="{BC0DAD39-9E17-4F58-BF9C-3798297718FF}"/>
+    <workbookView xWindow="2115" yWindow="3510" windowWidth="15915" windowHeight="15345" tabRatio="779" firstSheet="1" activeTab="5" xr2:uid="{BC0DAD39-9E17-4F58-BF9C-3798297718FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ведомость" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="179">
   <si>
     <t>Индекс</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Валидация</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>1</t>
@@ -1024,22 +1021,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1053,22 +1050,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1082,22 +1079,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1111,22 +1108,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1140,22 +1137,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1169,22 +1166,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1198,22 +1195,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1227,22 +1224,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1256,22 +1253,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1285,22 +1282,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1314,22 +1311,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1343,22 +1340,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1372,22 +1369,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1401,22 +1398,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1430,22 +1427,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1459,22 +1456,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1488,22 +1485,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1517,22 +1514,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1546,22 +1543,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1575,22 +1572,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1604,22 +1601,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1633,22 +1630,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1662,22 +1659,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1691,22 +1688,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1720,22 +1717,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1749,22 +1746,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1805,16 +1802,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>86</v>
-      </c>
-      <c r="F1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1822,16 +1819,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1839,16 +1836,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1856,16 +1853,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,16 +1870,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" t="s">
         <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1890,16 +1887,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1907,16 +1904,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1924,16 +1921,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1941,16 +1938,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1958,16 +1955,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1975,16 +1972,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1992,16 +1989,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2009,16 +2006,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" t="s">
         <v>101</v>
       </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2026,16 +2023,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2043,16 +2040,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2060,16 +2057,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2077,16 +2074,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" t="s">
         <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2094,16 +2091,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" t="s">
         <v>108</v>
-      </c>
-      <c r="D18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2111,16 +2108,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" t="s">
         <v>110</v>
-      </c>
-      <c r="D19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2128,16 +2125,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" t="s">
         <v>112</v>
-      </c>
-      <c r="D20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2145,16 +2142,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
         <v>114</v>
       </c>
-      <c r="D21" t="s">
-        <v>115</v>
-      </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2162,16 +2159,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2179,16 +2176,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>118</v>
-      </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2196,16 +2193,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>118</v>
-      </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,16 +2210,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
-      </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2230,16 +2227,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" t="s">
-        <v>120</v>
-      </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2247,16 +2244,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
-      </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2264,16 +2261,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" t="s">
         <v>123</v>
-      </c>
-      <c r="E28" t="s">
-        <v>124</v>
       </c>
       <c r="F28">
         <v>72.187968681300262</v>
@@ -2284,16 +2281,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29">
         <v>72.187968681300262</v>
@@ -2304,16 +2301,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" t="s">
         <v>126</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
       </c>
       <c r="F30">
         <v>13.829652249662766</v>
@@ -2324,16 +2321,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F31">
         <v>13.829652249662766</v>
@@ -2344,16 +2341,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
         <v>129</v>
-      </c>
-      <c r="E32" t="s">
-        <v>130</v>
       </c>
       <c r="F32">
         <v>20.634346496409641</v>
@@ -2364,16 +2361,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" t="s">
         <v>131</v>
-      </c>
-      <c r="E33" t="s">
-        <v>132</v>
       </c>
       <c r="F33">
         <v>6.2361215361950615</v>
@@ -2384,16 +2381,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s">
         <v>133</v>
-      </c>
-      <c r="E34" t="s">
-        <v>134</v>
       </c>
       <c r="F34">
         <v>13.404293070651994</v>
@@ -2404,16 +2401,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" t="s">
         <v>135</v>
-      </c>
-      <c r="E35" t="s">
-        <v>136</v>
       </c>
       <c r="F35">
         <v>13.404293070651969</v>
@@ -2466,10 +2463,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" t="s">
         <v>85</v>
-      </c>
-      <c r="J1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2477,13 +2474,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2492,16 +2489,16 @@
         <v>0.05</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" t="s">
         <v>126</v>
-      </c>
-      <c r="J2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2509,13 +2506,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>2.5</v>
@@ -2524,16 +2521,16 @@
         <v>0.08</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2541,10 +2538,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2556,16 +2553,16 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2573,10 +2570,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2588,16 +2585,16 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2605,31 +2602,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2637,31 +2634,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>92</v>
-      </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2669,10 +2666,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2684,16 +2681,16 @@
         <v>0.05</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2701,13 +2698,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
       </c>
       <c r="E9">
         <v>1.5</v>
@@ -2716,16 +2713,16 @@
         <v>0.05</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" t="s">
         <v>123</v>
-      </c>
-      <c r="J9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2733,13 +2730,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -2748,16 +2745,16 @@
         <v>0.06</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2765,31 +2762,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2797,31 +2794,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2829,31 +2826,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
         <v>77</v>
       </c>
-      <c r="F13" t="s">
-        <v>78</v>
-      </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2861,31 +2858,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2893,31 +2890,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2925,13 +2922,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" t="s">
         <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -2940,16 +2937,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" t="s">
         <v>129</v>
-      </c>
-      <c r="J16" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2957,13 +2954,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -2972,16 +2969,16 @@
         <v>0.12</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" t="s">
         <v>131</v>
-      </c>
-      <c r="J17" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2989,31 +2986,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" t="s">
         <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
       </c>
       <c r="E18">
         <v>0.5</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
         <v>133</v>
-      </c>
-      <c r="J18" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -3021,10 +3018,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3033,19 +3030,19 @@
         <v>0.5</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3053,10 +3050,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3068,16 +3065,16 @@
         <v>0.01</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3085,10 +3082,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3100,16 +3097,16 @@
         <v>0.01</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -3117,10 +3114,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3132,16 +3129,16 @@
         <v>0.01</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3149,10 +3146,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3164,16 +3161,16 @@
         <v>0.01</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3181,10 +3178,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3196,16 +3193,16 @@
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3213,10 +3210,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3228,16 +3225,16 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3245,10 +3242,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3260,16 +3257,16 @@
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3277,10 +3274,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3292,16 +3289,16 @@
         <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3309,10 +3306,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3324,16 +3321,16 @@
         <v>0.01</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3341,10 +3338,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3356,16 +3353,16 @@
         <v>0.01</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3373,10 +3370,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -3388,16 +3385,16 @@
         <v>0.01</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3405,31 +3402,31 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" t="s">
-        <v>67</v>
-      </c>
       <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" t="s">
         <v>77</v>
       </c>
-      <c r="F31" t="s">
-        <v>78</v>
-      </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3437,31 +3434,31 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" t="s">
         <v>77</v>
       </c>
-      <c r="F32" t="s">
-        <v>78</v>
-      </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -3469,10 +3466,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3484,16 +3481,16 @@
         <v>0.01</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -3501,10 +3498,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3516,16 +3513,16 @@
         <v>0.01</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -3533,13 +3530,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
         <v>70</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" t="s">
-        <v>71</v>
       </c>
       <c r="E35">
         <v>1.5</v>
@@ -3548,16 +3545,16 @@
         <v>0.03</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35" t="s">
+        <v>134</v>
+      </c>
+      <c r="J35" t="s">
         <v>135</v>
-      </c>
-      <c r="J35" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3589,7 +3586,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3597,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
         <v>137</v>
-      </c>
-      <c r="C2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3608,10 +3605,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
         <v>139</v>
-      </c>
-      <c r="C3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3619,10 +3616,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
         <v>141</v>
-      </c>
-      <c r="C4" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3651,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3659,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3667,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3679,12 +3676,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF661B09-FF86-4E7A-962A-4A20F396E77A}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="10" max="10" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -3692,10 +3692,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3716,27 +3716,27 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
         <v>85</v>
-      </c>
-      <c r="K1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1">
+        <v>208</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>5</v>
@@ -3745,33 +3745,33 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
@@ -3780,103 +3780,103 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>204</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="1">
+        <v>205</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>92</v>
-      </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1">
+        <v>206</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F6" s="1">
         <v>2.5</v>
@@ -3885,33 +3885,33 @@
         <v>0.05</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>209</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F7" s="1">
         <v>1.5</v>
@@ -3920,33 +3920,33 @@
         <v>0.05</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" t="s">
         <v>149</v>
-      </c>
-      <c r="K7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="1">
+        <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -3955,33 +3955,33 @@
         <v>0.06</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" t="s">
         <v>149</v>
-      </c>
-      <c r="K8" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1">
+        <v>211</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -3990,33 +3990,33 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" t="s">
         <v>152</v>
-      </c>
-      <c r="K9" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <v>217</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
@@ -4025,33 +4025,33 @@
         <v>0.12</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" t="s">
         <v>155</v>
-      </c>
-      <c r="K10" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1">
+        <v>200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F11" s="1">
         <v>0.4</v>
@@ -4060,33 +4060,33 @@
         <v>0.01</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1">
+        <v>201</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F12" s="1">
         <v>0.4</v>
@@ -4095,33 +4095,33 @@
         <v>0.01</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="1">
+        <v>202</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F13" s="1">
         <v>0.4</v>
@@ -4130,33 +4130,33 @@
         <v>0.01</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1">
+        <v>203</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="1">
         <v>0.4</v>
@@ -4165,33 +4165,33 @@
         <v>0.01</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>62</v>
+      </c>
+      <c r="C15" s="1">
+        <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1">
         <v>0.4</v>
@@ -4200,103 +4200,103 @@
         <v>0.01</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1">
+        <v>216</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="F16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
+      </c>
+      <c r="C17" s="1">
+        <v>212</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="1">
+        <v>213</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F18" s="1">
         <v>0.4</v>
@@ -4305,33 +4305,33 @@
         <v>0.01</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="1">
+        <v>214</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F19" s="1">
         <v>0.4</v>
@@ -4340,16 +4340,16 @@
         <v>0.01</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4374,10 +4374,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -4398,27 +4398,27 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
         <v>85</v>
-      </c>
-      <c r="K1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>316</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -4427,33 +4427,33 @@
         <v>0.05</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" t="s">
         <v>158</v>
-      </c>
-      <c r="K2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>317</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F3" s="1">
         <v>2.5</v>
@@ -4462,33 +4462,33 @@
         <v>0.08</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" t="s">
         <v>158</v>
-      </c>
-      <c r="K3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" s="1">
         <v>1.5</v>
@@ -4497,33 +4497,33 @@
         <v>0.05</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" t="s">
         <v>161</v>
-      </c>
-      <c r="K4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="C5" s="1">
+        <v>308</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -4532,208 +4532,208 @@
         <v>0.06</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" t="s">
         <v>161</v>
-      </c>
-      <c r="K5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1">
+        <v>305</v>
+      </c>
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1">
+        <v>306</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1">
+        <v>309</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1">
+        <v>312</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1">
+        <v>310</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="1">
+        <v>314</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -4742,33 +4742,33 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" t="s">
         <v>165</v>
-      </c>
-      <c r="K11" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="1">
+        <v>304</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -4777,33 +4777,33 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
+        <v>168</v>
+      </c>
+      <c r="K12" t="s">
         <v>169</v>
-      </c>
-      <c r="K12" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="C13" s="1">
+        <v>315</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
@@ -4812,103 +4812,103 @@
         <v>0.12</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" t="s">
         <v>172</v>
-      </c>
-      <c r="K13" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1">
+        <v>311</v>
+      </c>
+      <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F14" s="1">
         <v>0.5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" t="s">
         <v>175</v>
-      </c>
-      <c r="K14" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1">
+        <v>303</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F15" s="1">
         <v>0.5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="1">
+        <v>300</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F16" s="1">
         <v>5</v>
@@ -4917,33 +4917,33 @@
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="1">
+        <v>301</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F17" s="1">
         <v>5</v>
@@ -4952,33 +4952,33 @@
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="1">
+        <v>302</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F18" s="1">
         <v>5</v>
@@ -4987,33 +4987,33 @@
         <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>69</v>
+      </c>
+      <c r="C19" s="1">
+        <v>313</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F19" s="1">
         <v>1.5</v>
@@ -5022,16 +5022,16 @@
         <v>0.03</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
         <v>178</v>
-      </c>
-      <c r="K19" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5043,8 +5043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD311E21-1AB1-4F29-829E-514A8ED7760D}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5082,27 +5082,27 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
         <v>85</v>
-      </c>
-      <c r="K1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="1">
+        <v>400</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>0.4</v>
@@ -5111,33 +5111,33 @@
         <v>0.01</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="1">
+        <v>401</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>0.4</v>
@@ -5146,16 +5146,16 @@
         <v>0.01</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TaxationTool\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7126ED86-1629-4E2B-9CA3-0A570EFD16D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BAF716-9F82-422E-9970-21BDEA928B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="3510" windowWidth="15915" windowHeight="15345" tabRatio="779" firstSheet="1" activeTab="5" xr2:uid="{BC0DAD39-9E17-4F58-BF9C-3798297718FF}"/>
+    <workbookView xWindow="390" yWindow="3345" windowWidth="22365" windowHeight="15345" tabRatio="806" activeTab="5" xr2:uid="{BC0DAD39-9E17-4F58-BF9C-3798297718FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ведомость" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="185">
   <si>
     <t>Индекс</t>
   </si>
@@ -481,9 +481,6 @@
     <t>Номер</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>41.5 м.кв.</t>
   </si>
   <si>
@@ -578,6 +575,27 @@
   </si>
   <si>
     <t>POLYGON ((3100.532213657918 1697.306927260158, 3100.6887503132234 1697.14828707866, 3100.806951293852 1696.976818722789, 3100.889117330228 1696.7938158914849, 3100.938604201856 1696.600286505884, 3100.9587676882393 1696.397238487122, 3100.9529635688814 1696.185679756336, 3100.924547623289 1695.96661823466, 3100.876875630965 1695.741061843233, 3100.8133033714116 1695.510018503189, 3100.651881168635 1695.035502661798, 3100.467127250995 1694.551134079575, 3100.282926134187 1694.065990230376, 3100.096546007764 1693.598262123466, 3099.997296765145 1693.3781162556108, 3099.8911867952665 1693.170957798077, 3099.776100142384 1692.979668215806, 3099.649920850755 1692.8071289737359, 3099.510532964635 1692.6562215368122, 3099.3558205282843 1692.5298273699718, 3099.183667585956 1692.430827938158, 3098.991958181908 1692.3621047063111, 3098.7794984939082 1692.3260432082832, 3098.551618186938 1692.321520592129, 3098.316460422456 1692.3459008840412, 3098.0821794327708 1692.3965421562218, 3097.8569294501817 1692.4708024808772, 3097.6488647069928 1692.566039930207, 3097.466139435506 1692.679612576418, 3097.316907868026 1692.808878491711, 3097.207395223952 1692.951512940749, 3097.1361106710747 1693.106459958035, 3097.099634364286 1693.2729807705289, 3097.0945464584747 1693.450336605192, 3097.1174271085274 1693.637788688983, 3097.1648564693346 1693.834598248865, 3097.233414695788 1694.040026511797, 3097.3196819427726 1694.2533347047422, 3097.5316641179043 1694.7006357885089, 3097.773444233841 1695.170591315853, 3098.0176635297 1695.657291102457, 3098.236963244593 1696.15482496401, 3098.4131861110136 1696.651984786485, 3098.493788889969 1696.888677290289, 3098.5772539788263 1697.109304247796, 3098.6694851375532 1697.307758648187, 3098.776386126115 1697.477933480638, 3098.9038607044818 1697.6137217343341, 3098.977617627182 1697.65937651281, 3098.996099247087 1697.652912352684, 3099.048623508188 1697.632770667421, 3099.101339159586 1697.6103764655631, 3099.154163159088 1697.585491606475, 3099.2070791594397 1697.5584453103272, 3099.313188468587 1697.499752648339, 3099.526525462005 1697.3771567360009, 3099.580094609621 1697.348170070841, 3099.6337583698937 1697.3207904515962, 3099.687517069299 1697.295488938635, 3099.741371034312 1697.2727365923308, 3099.795320591411 1697.2530044730552, 3099.849366067072 1697.2367636411789, 3099.9035077877693 1697.224485157074, 3099.9577460799796 1697.216640081113, 3099.984901542426 1697.214527277552, 3100.0120812701803 1697.213699473666, 3100.039285304049 1697.214215552001, 3100.066513684846 1697.216134395105, 3100.093766453377 1697.2195148855249, 3100.121043650454 1697.224415905804, 3100.148345316885 1697.230896338491, 3100.1756714934804 1697.239015066131, 3100.203022221047 1697.248830971272, 3100.2303975403993 1697.26040293646, 3100.2577974923406 1697.2737898442401, 3100.285222117689 1697.2890505771609, 3100.312671457246 1697.306244017767, 3100.3401455518238 1697.3254290486059, 3100.367644442234 1697.3466645522242, 3100.395168169283 1697.370009411168, 3100.4190364519973 1697.392114117334, 3100.532213657918 1697.306927260158))</t>
+  </si>
+  <si>
+    <t>Действие</t>
+  </si>
+  <si>
+    <t>Удаление</t>
+  </si>
+  <si>
+    <t>Пересадка</t>
+  </si>
+  <si>
+    <t>Компенсационные посадки</t>
+  </si>
+  <si>
+    <t>...= N посадок</t>
+  </si>
+  <si>
+    <t>Компенсационные выплаты</t>
+  </si>
+  <si>
+    <t>...= N выплат</t>
   </si>
 </sst>
 </file>
@@ -2429,12 +2447,13 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="1" max="7" width="9.140625" style="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2447,16 +2466,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -2479,16 +2498,16 @@
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.05</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H2">
@@ -2511,16 +2530,16 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>2.5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.08</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H3">
@@ -2543,16 +2562,16 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H4">
@@ -2575,16 +2594,16 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H5">
@@ -2607,16 +2626,16 @@
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H6">
@@ -2639,16 +2658,16 @@
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H7">
@@ -2671,16 +2690,16 @@
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>2.5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0.05</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H8">
@@ -2703,16 +2722,16 @@
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>1.5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0.05</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H9">
@@ -2735,16 +2754,16 @@
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.06</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H10">
@@ -2767,16 +2786,16 @@
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11">
@@ -2799,16 +2818,16 @@
       <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H12">
@@ -2831,16 +2850,16 @@
       <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H13">
@@ -2863,16 +2882,16 @@
       <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H14">
@@ -2895,16 +2914,16 @@
       <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H15">
@@ -2927,16 +2946,16 @@
       <c r="C16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H16">
@@ -2959,16 +2978,16 @@
       <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>3</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>0.12</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H17">
@@ -2991,16 +3010,16 @@
       <c r="C18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>0.5</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H18">
@@ -3023,16 +3042,16 @@
       <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>0.5</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H19">
@@ -3055,16 +3074,16 @@
       <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>0.4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>0.01</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H20">
@@ -3087,16 +3106,16 @@
       <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>0.4</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>0.01</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H21">
@@ -3119,16 +3138,16 @@
       <c r="C22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>0.4</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>0.01</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H22">
@@ -3151,16 +3170,16 @@
       <c r="C23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>0.4</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>0.01</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H23">
@@ -3183,16 +3202,16 @@
       <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>5</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H24">
@@ -3215,16 +3234,16 @@
       <c r="C25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>5</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>4</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H25">
@@ -3247,16 +3266,16 @@
       <c r="C26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>5</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>8</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H26">
@@ -3279,16 +3298,16 @@
       <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>5</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>8</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H27">
@@ -3311,16 +3330,16 @@
       <c r="C28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>0.4</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>0.01</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H28">
@@ -3343,16 +3362,16 @@
       <c r="C29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>0.4</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>0.01</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H29">
@@ -3375,16 +3394,16 @@
       <c r="C30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>3</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>0.4</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>0.01</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H30">
@@ -3407,16 +3426,16 @@
       <c r="C31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H31">
@@ -3439,16 +3458,16 @@
       <c r="C32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H32">
@@ -3471,16 +3490,16 @@
       <c r="C33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>0.4</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>0.01</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H33">
@@ -3503,16 +3522,16 @@
       <c r="C34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>0.4</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>0.01</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H34">
@@ -3535,16 +3554,16 @@
       <c r="C35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>1.5</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>0.03</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H35">
@@ -3570,7 +3589,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3674,20 +3693,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF661B09-FF86-4E7A-962A-4A20F396E77A}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="1" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3697,7 +3716,7 @@
       <c r="C1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3721,10 +3740,16 @@
       <c r="K1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>146</v>
+      <c r="L1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>41</v>
@@ -3732,7 +3757,7 @@
       <c r="C2" s="1">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3756,10 +3781,16 @@
       <c r="K2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+      <c r="L2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>37</v>
@@ -3767,7 +3798,7 @@
       <c r="C3" s="1">
         <v>207</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3791,10 +3822,16 @@
       <c r="K3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="L3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
@@ -3802,7 +3839,7 @@
       <c r="C4" s="1">
         <v>204</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3826,10 +3863,16 @@
       <c r="K4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
+      <c r="L4" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>90</v>
@@ -3837,7 +3880,7 @@
       <c r="C5" s="1">
         <v>205</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3861,10 +3904,16 @@
       <c r="K5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
+      <c r="L5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
@@ -3872,7 +3921,7 @@
       <c r="C6" s="1">
         <v>206</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3896,10 +3945,16 @@
       <c r="K6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
+      <c r="L6" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>30</v>
@@ -3907,11 +3962,11 @@
       <c r="C7" s="1">
         <v>209</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" s="1">
         <v>1.5</v>
@@ -3926,15 +3981,21 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K7" t="s">
         <v>148</v>
       </c>
-      <c r="K7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>90</v>
+      <c r="L7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
@@ -3942,11 +4003,11 @@
       <c r="C8" s="1">
         <v>210</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -3961,15 +4022,21 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" t="s">
         <v>148</v>
       </c>
-      <c r="K8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
+      <c r="L8" t="s">
+        <v>180</v>
+      </c>
+      <c r="M8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>47</v>
@@ -3977,11 +4044,11 @@
       <c r="C9" s="1">
         <v>211</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -3996,15 +4063,21 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" t="s">
         <v>151</v>
       </c>
-      <c r="K9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
+      <c r="L9" t="s">
+        <v>180</v>
+      </c>
+      <c r="M9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>24</v>
@@ -4012,11 +4085,11 @@
       <c r="C10" s="1">
         <v>217</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
@@ -4031,15 +4104,21 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" t="s">
         <v>154</v>
       </c>
-      <c r="K10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
+      <c r="L10" t="s">
+        <v>180</v>
+      </c>
+      <c r="M10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>100</v>
@@ -4047,7 +4126,7 @@
       <c r="C11" s="1">
         <v>200</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -4071,10 +4150,16 @@
       <c r="K11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
+      <c r="L11" t="s">
+        <v>180</v>
+      </c>
+      <c r="M11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>102</v>
@@ -4082,7 +4167,7 @@
       <c r="C12" s="1">
         <v>201</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -4106,10 +4191,16 @@
       <c r="K12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
+      <c r="L12" t="s">
+        <v>180</v>
+      </c>
+      <c r="M12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>103</v>
@@ -4117,7 +4208,7 @@
       <c r="C13" s="1">
         <v>202</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -4141,10 +4232,16 @@
       <c r="K13" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
+      <c r="L13" t="s">
+        <v>180</v>
+      </c>
+      <c r="M13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>57</v>
@@ -4152,7 +4249,7 @@
       <c r="C14" s="1">
         <v>203</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -4176,10 +4273,16 @@
       <c r="K14" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
+      <c r="L14" t="s">
+        <v>180</v>
+      </c>
+      <c r="M14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>62</v>
@@ -4187,7 +4290,7 @@
       <c r="C15" s="1">
         <v>215</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -4211,10 +4314,16 @@
       <c r="K15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
+      <c r="L15" t="s">
+        <v>180</v>
+      </c>
+      <c r="M15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>65</v>
@@ -4222,7 +4331,7 @@
       <c r="C16" s="1">
         <v>216</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -4246,10 +4355,16 @@
       <c r="K16" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>47</v>
+      <c r="L16" t="s">
+        <v>180</v>
+      </c>
+      <c r="M16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>67</v>
@@ -4257,7 +4372,7 @@
       <c r="C17" s="1">
         <v>212</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -4281,10 +4396,16 @@
       <c r="K17" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>120</v>
@@ -4292,7 +4413,7 @@
       <c r="C18" s="1">
         <v>213</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -4316,10 +4437,16 @@
       <c r="K18" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>51</v>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>121</v>
@@ -4327,7 +4454,7 @@
       <c r="C19" s="1">
         <v>214</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -4350,6 +4477,12 @@
       </c>
       <c r="K19" t="s">
         <v>119</v>
+      </c>
+      <c r="L19" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4359,17 +4492,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAED620-2656-4FCC-BF7A-F23211E43DA5}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="1" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4379,7 +4513,7 @@
       <c r="C1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -4403,10 +4537,16 @@
       <c r="K1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>146</v>
+      <c r="L1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -4414,11 +4554,11 @@
       <c r="C2" s="1">
         <v>316</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -4433,15 +4573,21 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" t="s">
         <v>157</v>
       </c>
-      <c r="K2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+      <c r="L2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -4449,11 +4595,11 @@
       <c r="C3" s="1">
         <v>317</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F3" s="1">
         <v>2.5</v>
@@ -4468,15 +4614,21 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" t="s">
         <v>157</v>
       </c>
-      <c r="K3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="L3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -4484,11 +4636,11 @@
       <c r="C4" s="1">
         <v>307</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" s="1">
         <v>1.5</v>
@@ -4503,15 +4655,21 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" t="s">
         <v>160</v>
       </c>
-      <c r="K4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
+      <c r="L4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -4519,11 +4677,11 @@
       <c r="C5" s="1">
         <v>308</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -4538,15 +4696,21 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" t="s">
         <v>160</v>
       </c>
-      <c r="K5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
+      <c r="L5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>33</v>
@@ -4554,7 +4718,7 @@
       <c r="C6" s="1">
         <v>305</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -4578,10 +4742,16 @@
       <c r="K6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
+      <c r="L6" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>36</v>
@@ -4589,7 +4759,7 @@
       <c r="C7" s="1">
         <v>306</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4613,10 +4783,16 @@
       <c r="K7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>90</v>
+      <c r="L7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>40</v>
@@ -4624,7 +4800,7 @@
       <c r="C8" s="1">
         <v>309</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4648,10 +4824,16 @@
       <c r="K8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
+      <c r="L8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>42</v>
@@ -4659,7 +4841,7 @@
       <c r="C9" s="1">
         <v>312</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -4683,10 +4865,16 @@
       <c r="K9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
+      <c r="L9" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>44</v>
@@ -4694,7 +4882,7 @@
       <c r="C10" s="1">
         <v>310</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4718,22 +4906,28 @@
       <c r="K10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
+      <c r="L10" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="1">
         <v>314</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -4748,27 +4942,33 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" t="s">
         <v>164</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>179</v>
+      </c>
+      <c r="M11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C12" s="1">
         <v>304</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -4783,15 +4983,21 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K12" t="s">
         <v>168</v>
       </c>
-      <c r="K12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
+      <c r="L12" t="s">
+        <v>179</v>
+      </c>
+      <c r="M12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
@@ -4799,11 +5005,11 @@
       <c r="C13" s="1">
         <v>315</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
@@ -4818,15 +5024,21 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" t="s">
         <v>171</v>
       </c>
-      <c r="K13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
+      <c r="L13" t="s">
+        <v>179</v>
+      </c>
+      <c r="M13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>51</v>
@@ -4834,11 +5046,11 @@
       <c r="C14" s="1">
         <v>311</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F14" s="1">
         <v>0.5</v>
@@ -4853,15 +5065,21 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" t="s">
         <v>174</v>
       </c>
-      <c r="K14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
+      <c r="L14" t="s">
+        <v>179</v>
+      </c>
+      <c r="M14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>54</v>
@@ -4869,7 +5087,7 @@
       <c r="C15" s="1">
         <v>303</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -4893,10 +5111,16 @@
       <c r="K15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
+      <c r="L15" t="s">
+        <v>179</v>
+      </c>
+      <c r="M15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>105</v>
@@ -4904,7 +5128,7 @@
       <c r="C16" s="1">
         <v>300</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -4928,10 +5152,16 @@
       <c r="K16" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>47</v>
+      <c r="L16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>107</v>
@@ -4939,7 +5169,7 @@
       <c r="C17" s="1">
         <v>301</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -4963,10 +5193,16 @@
       <c r="K17" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
+      <c r="L17" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>109</v>
@@ -4974,7 +5210,7 @@
       <c r="C18" s="1">
         <v>302</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -4998,10 +5234,16 @@
       <c r="K18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>51</v>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>69</v>
@@ -5009,11 +5251,11 @@
       <c r="C19" s="1">
         <v>313</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F19" s="1">
         <v>1.5</v>
@@ -5028,10 +5270,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
         <v>177</v>
       </c>
-      <c r="K19" t="s">
-        <v>178</v>
+      <c r="L19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5041,7 +5289,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD311E21-1AB1-4F29-829E-514A8ED7760D}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
@@ -5049,11 +5297,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="1" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5063,7 +5310,7 @@
       <c r="C1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -5087,10 +5334,16 @@
       <c r="K1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>146</v>
+      <c r="L1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>113</v>
@@ -5098,7 +5351,7 @@
       <c r="C2" s="1">
         <v>400</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -5122,10 +5375,16 @@
       <c r="K2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+      <c r="L2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>115</v>
@@ -5133,7 +5392,7 @@
       <c r="C3" s="1">
         <v>401</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -5156,6 +5415,12 @@
       </c>
       <c r="K3" t="s">
         <v>114</v>
+      </c>
+      <c r="L3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TaxationTool\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BAF716-9F82-422E-9970-21BDEA928B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487335FA-F769-44FD-AF0A-5A0113628B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="3345" windowWidth="22365" windowHeight="15345" tabRatio="806" activeTab="5" xr2:uid="{BC0DAD39-9E17-4F58-BF9C-3798297718FF}"/>
+    <workbookView xWindow="4680" yWindow="3615" windowWidth="22365" windowHeight="15345" tabRatio="806" activeTab="6" xr2:uid="{BC0DAD39-9E17-4F58-BF9C-3798297718FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ведомость" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="184">
   <si>
     <t>Индекс</t>
   </si>
@@ -481,6 +481,9 @@
     <t>Номер</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>41.5 м.кв.</t>
   </si>
   <si>
@@ -583,19 +586,13 @@
     <t>Удаление</t>
   </si>
   <si>
-    <t>Пересадка</t>
-  </si>
-  <si>
     <t>Компенсационные посадки</t>
   </si>
   <si>
     <t>...= N посадок</t>
   </si>
   <si>
-    <t>Компенсационные выплаты</t>
-  </si>
-  <si>
-    <t>...= N выплат</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -2452,7 +2449,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3693,20 +3692,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF661B09-FF86-4E7A-962A-4A20F396E77A}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3740,22 +3741,16 @@
       <c r="K1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" t="s">
-        <v>178</v>
-      </c>
-      <c r="M1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="1">
-        <v>208</v>
+      <c r="C2" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -3781,22 +3776,16 @@
       <c r="K2" t="s">
         <v>87</v>
       </c>
-      <c r="L2" t="s">
-        <v>180</v>
-      </c>
-      <c r="M2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="1">
-        <v>207</v>
+      <c r="C3" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -3822,22 +3811,16 @@
       <c r="K3" t="s">
         <v>88</v>
       </c>
-      <c r="L3" t="s">
-        <v>180</v>
-      </c>
-      <c r="M3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1">
-        <v>204</v>
+      <c r="C4" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -3863,22 +3846,16 @@
       <c r="K4" t="s">
         <v>89</v>
       </c>
-      <c r="L4" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="1">
-        <v>205</v>
+      <c r="C5" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
@@ -3904,22 +3881,16 @@
       <c r="K5" t="s">
         <v>91</v>
       </c>
-      <c r="L5" t="s">
-        <v>180</v>
-      </c>
-      <c r="M5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1">
-        <v>206</v>
+      <c r="C6" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -3945,28 +3916,22 @@
       <c r="K6" t="s">
         <v>92</v>
       </c>
-      <c r="L6" t="s">
-        <v>180</v>
-      </c>
-      <c r="M6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1">
-        <v>209</v>
+      <c r="C7" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F7" s="1">
         <v>1.5</v>
@@ -3981,33 +3946,27 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1">
-        <v>210</v>
+      <c r="C8" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -4022,33 +3981,27 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K8" t="s">
-        <v>148</v>
-      </c>
-      <c r="L8" t="s">
-        <v>180</v>
-      </c>
-      <c r="M8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="1">
-        <v>211</v>
+      <c r="C9" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -4063,33 +4016,27 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K9" t="s">
-        <v>151</v>
-      </c>
-      <c r="L9" t="s">
-        <v>180</v>
-      </c>
-      <c r="M9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1">
-        <v>217</v>
+      <c r="C10" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
@@ -4104,27 +4051,21 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" t="s">
-        <v>180</v>
-      </c>
-      <c r="M10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="1">
-        <v>200</v>
+      <c r="C11" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>56</v>
@@ -4150,22 +4091,16 @@
       <c r="K11" t="s">
         <v>101</v>
       </c>
-      <c r="L11" t="s">
-        <v>180</v>
-      </c>
-      <c r="M11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="1">
-        <v>201</v>
+      <c r="C12" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>56</v>
@@ -4191,22 +4126,16 @@
       <c r="K12" t="s">
         <v>101</v>
       </c>
-      <c r="L12" t="s">
-        <v>180</v>
-      </c>
-      <c r="M12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="1">
-        <v>202</v>
+      <c r="C13" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>56</v>
@@ -4232,22 +4161,16 @@
       <c r="K13" t="s">
         <v>101</v>
       </c>
-      <c r="L13" t="s">
-        <v>180</v>
-      </c>
-      <c r="M13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="1">
-        <v>203</v>
+      <c r="C14" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>56</v>
@@ -4273,22 +4196,16 @@
       <c r="K14" t="s">
         <v>101</v>
       </c>
-      <c r="L14" t="s">
-        <v>180</v>
-      </c>
-      <c r="M14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="1">
-        <v>215</v>
+      <c r="C15" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>56</v>
@@ -4314,22 +4231,16 @@
       <c r="K15" t="s">
         <v>117</v>
       </c>
-      <c r="L15" t="s">
-        <v>180</v>
-      </c>
-      <c r="M15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="1">
-        <v>216</v>
+      <c r="C16" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>56</v>
@@ -4355,22 +4266,16 @@
       <c r="K16" t="s">
         <v>117</v>
       </c>
-      <c r="L16" t="s">
-        <v>180</v>
-      </c>
-      <c r="M16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="1">
-        <v>212</v>
+      <c r="C17" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>56</v>
@@ -4396,22 +4301,16 @@
       <c r="K17" t="s">
         <v>119</v>
       </c>
-      <c r="L17" t="s">
-        <v>180</v>
-      </c>
-      <c r="M17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="1">
-        <v>213</v>
+      <c r="C18" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>56</v>
@@ -4437,22 +4336,16 @@
       <c r="K18" t="s">
         <v>119</v>
       </c>
-      <c r="L18" t="s">
-        <v>180</v>
-      </c>
-      <c r="M18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="1">
-        <v>214</v>
+      <c r="C19" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>56</v>
@@ -4477,12 +4370,6 @@
       </c>
       <c r="K19" t="s">
         <v>119</v>
-      </c>
-      <c r="L19" t="s">
-        <v>180</v>
-      </c>
-      <c r="M19" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4492,18 +4379,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAED620-2656-4FCC-BF7A-F23211E43DA5}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4537,28 +4427,22 @@
       <c r="K1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" t="s">
-        <v>178</v>
-      </c>
-      <c r="M1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
-        <v>316</v>
+      <c r="C2" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -4573,33 +4457,27 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K2" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" t="s">
-        <v>179</v>
-      </c>
-      <c r="M2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1">
-        <v>317</v>
+      <c r="C3" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F3" s="1">
         <v>2.5</v>
@@ -4614,33 +4492,27 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L3" t="s">
-        <v>179</v>
-      </c>
-      <c r="M3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1">
-        <v>307</v>
+      <c r="C4" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F4" s="1">
         <v>1.5</v>
@@ -4655,33 +4527,27 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L4" t="s">
-        <v>179</v>
-      </c>
-      <c r="M4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1">
-        <v>308</v>
+      <c r="C5" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -4696,27 +4562,21 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K5" t="s">
-        <v>160</v>
-      </c>
-      <c r="L5" t="s">
-        <v>179</v>
-      </c>
-      <c r="M5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1">
-        <v>305</v>
+      <c r="C6" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>34</v>
@@ -4742,22 +4602,16 @@
       <c r="K6" t="s">
         <v>93</v>
       </c>
-      <c r="L6" t="s">
-        <v>179</v>
-      </c>
-      <c r="M6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1">
-        <v>306</v>
+      <c r="C7" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>34</v>
@@ -4783,22 +4637,16 @@
       <c r="K7" t="s">
         <v>94</v>
       </c>
-      <c r="L7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="1">
-        <v>309</v>
+      <c r="C8" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>34</v>
@@ -4824,22 +4672,16 @@
       <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="L8" t="s">
-        <v>179</v>
-      </c>
-      <c r="M8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1">
-        <v>312</v>
+      <c r="C9" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>34</v>
@@ -4865,22 +4707,16 @@
       <c r="K9" t="s">
         <v>97</v>
       </c>
-      <c r="L9" t="s">
-        <v>179</v>
-      </c>
-      <c r="M9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="1">
-        <v>310</v>
+      <c r="C10" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>34</v>
@@ -4906,28 +4742,22 @@
       <c r="K10" t="s">
         <v>96</v>
       </c>
-      <c r="L10" t="s">
-        <v>179</v>
-      </c>
-      <c r="M10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="1">
-        <v>314</v>
+        <v>162</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -4942,33 +4772,27 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K11" t="s">
-        <v>164</v>
-      </c>
-      <c r="L11" t="s">
-        <v>179</v>
-      </c>
-      <c r="M11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="1">
-        <v>304</v>
+        <v>166</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -4983,33 +4807,27 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K12" t="s">
-        <v>168</v>
-      </c>
-      <c r="L12" t="s">
-        <v>179</v>
-      </c>
-      <c r="M12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1">
-        <v>315</v>
+      <c r="C13" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
@@ -5024,33 +4842,27 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K13" t="s">
-        <v>171</v>
-      </c>
-      <c r="L13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="1">
-        <v>311</v>
+      <c r="C14" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F14" s="1">
         <v>0.5</v>
@@ -5065,27 +4877,21 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K14" t="s">
-        <v>174</v>
-      </c>
-      <c r="L14" t="s">
-        <v>179</v>
-      </c>
-      <c r="M14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="1">
-        <v>303</v>
+      <c r="C15" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>52</v>
@@ -5111,22 +4917,16 @@
       <c r="K15" t="s">
         <v>98</v>
       </c>
-      <c r="L15" t="s">
-        <v>179</v>
-      </c>
-      <c r="M15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="1">
-        <v>300</v>
+      <c r="C16" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>17</v>
@@ -5152,22 +4952,16 @@
       <c r="K16" t="s">
         <v>106</v>
       </c>
-      <c r="L16" t="s">
-        <v>179</v>
-      </c>
-      <c r="M16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="1">
-        <v>301</v>
+      <c r="C17" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>17</v>
@@ -5193,22 +4987,16 @@
       <c r="K17" t="s">
         <v>108</v>
       </c>
-      <c r="L17" t="s">
-        <v>179</v>
-      </c>
-      <c r="M17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="1">
-        <v>302</v>
+      <c r="C18" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>17</v>
@@ -5234,28 +5022,22 @@
       <c r="K18" t="s">
         <v>110</v>
       </c>
-      <c r="L18" t="s">
-        <v>179</v>
-      </c>
-      <c r="M18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="1">
-        <v>313</v>
+      <c r="C19" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F19" s="1">
         <v>1.5</v>
@@ -5270,16 +5052,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
-      </c>
-      <c r="L19" t="s">
-        <v>179</v>
-      </c>
-      <c r="M19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5297,7 +5073,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -5335,7 +5113,7 @@
         <v>85</v>
       </c>
       <c r="L1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M1" t="s">
         <v>181</v>
@@ -5376,7 +5154,7 @@
         <v>114</v>
       </c>
       <c r="L2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M2" t="s">
         <v>182</v>
@@ -5417,7 +5195,7 @@
         <v>114</v>
       </c>
       <c r="L3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M3" t="s">
         <v>182</v>

--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TaxationTool\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487335FA-F769-44FD-AF0A-5A0113628B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33782EDE-35EF-4C0E-8F1C-AC48771C4612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="3615" windowWidth="22365" windowHeight="15345" tabRatio="806" activeTab="6" xr2:uid="{BC0DAD39-9E17-4F58-BF9C-3798297718FF}"/>
+    <workbookView xWindow="14520" yWindow="4350" windowWidth="13980" windowHeight="15345" tabRatio="806" firstSheet="1" activeTab="6" xr2:uid="{BC0DAD39-9E17-4F58-BF9C-3798297718FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ведомость" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="200">
   <si>
     <t>Индекс</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Ольха серая</t>
   </si>
   <si>
-    <t>5,5</t>
-  </si>
-  <si>
     <t>4,5</t>
   </si>
   <si>
@@ -109,12 +106,6 @@
     <t>6 стволов</t>
   </si>
   <si>
-    <t>4,4,4,4,4,4</t>
-  </si>
-  <si>
-    <t>5,5,5,5,5,5</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -127,9 +118,6 @@
     <t>5х14, 4х30, 3х8,2,1</t>
   </si>
   <si>
-    <t>7х3,4х11, 2х40</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -160,9 +148,6 @@
     <t>1.5х4</t>
   </si>
   <si>
-    <t>0.04х4</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -181,9 +166,6 @@
     <t>1.5х2</t>
   </si>
   <si>
-    <t>0.03х2</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -220,12 +202,6 @@
     <t>20,21-22, 23</t>
   </si>
   <si>
-    <t>5х4</t>
-  </si>
-  <si>
-    <t>5,4,8х2</t>
-  </si>
-  <si>
     <t>24-25</t>
   </si>
   <si>
@@ -268,15 +244,9 @@
     <t>0.06</t>
   </si>
   <si>
-    <t>0.04х2</t>
-  </si>
-  <si>
     <t>1.5х3</t>
   </si>
   <si>
-    <t>0.03х3</t>
-  </si>
-  <si>
     <t>0.12</t>
   </si>
   <si>
@@ -586,13 +556,92 @@
     <t>Удаление</t>
   </si>
   <si>
-    <t>Компенсационные посадки</t>
-  </si>
-  <si>
-    <t>...= N посадок</t>
-  </si>
-  <si>
-    <t/>
+    <t>19</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Компенсационные выплаты</t>
+  </si>
+  <si>
+    <t>...= N выплат</t>
+  </si>
+  <si>
+    <t>Пересадка
+См.Прим.3</t>
+  </si>
+  <si>
+    <t>4x6</t>
+  </si>
+  <si>
+    <t>5x6</t>
+  </si>
+  <si>
+    <t>3x3</t>
+  </si>
+  <si>
+    <t>7x3,4x11,2x40</t>
+  </si>
+  <si>
+    <t>0.03x3</t>
+  </si>
+  <si>
+    <t>3x2</t>
+  </si>
+  <si>
+    <t>4x4</t>
+  </si>
+  <si>
+    <t>4x2</t>
+  </si>
+  <si>
+    <t>1.5x3</t>
+  </si>
+  <si>
+    <t>1.5x4</t>
+  </si>
+  <si>
+    <t>1.5x2</t>
+  </si>
+  <si>
+    <t>5x14,4x30,3x8,2,1</t>
+  </si>
+  <si>
+    <t>0.04x2</t>
+  </si>
+  <si>
+    <t>0.04x4</t>
+  </si>
+  <si>
+    <t>0.03x2</t>
+  </si>
+  <si>
+    <t>5x2</t>
+  </si>
+  <si>
+    <t>5x4</t>
+  </si>
+  <si>
+    <t>5,4,8x2</t>
+  </si>
+  <si>
+    <t>1.005</t>
   </si>
 </sst>
 </file>
@@ -629,14 +678,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="18">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -669,15 +760,64 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{341D645C-33B6-434C-8061-BFC8ABF4F5C0}" name="Таблица1" displayName="Таблица1" ref="A1:I27" totalsRowShown="0">
   <autoFilter ref="A1:I27" xr:uid="{341D645C-33B6-434C-8061-BFC8ABF4F5C0}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AE2BFB4B-5314-475F-8DE5-C388611AC0BE}" name="Индекс" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{4773A5AA-2E94-480F-B873-7657045A62B5}" name="Номер точки" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{AE2BFB4B-5314-475F-8DE5-C388611AC0BE}" name="Индекс" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{4773A5AA-2E94-480F-B873-7657045A62B5}" name="Номер точки" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{1BEC71EA-2F46-4ECC-A497-CA34A005340C}" name="Наименование"/>
-    <tableColumn id="4" xr3:uid="{32DCA81F-3837-4BA1-A5BE-796F0B071213}" name="Количество" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{170F1184-4818-414C-9E6C-FED3895361AA}" name="Высота" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{4D9E8DE6-840F-4D57-AD7F-3EC84E5C0D5C}" name="Толщина" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{32DCA81F-3837-4BA1-A5BE-796F0B071213}" name="Количество" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{170F1184-4818-414C-9E6C-FED3895361AA}" name="Высота" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{4D9E8DE6-840F-4D57-AD7F-3EC84E5C0D5C}" name="Толщина" dataDxfId="13"/>
     <tableColumn id="7" xr3:uid="{6B76E26E-5252-4402-9A12-2478FEC44860}" name="Состояние"/>
     <tableColumn id="8" xr3:uid="{AE9AA0BE-9C32-4E0E-B630-539495676714}" name="Кустарник"/>
     <tableColumn id="9" xr3:uid="{87A81400-116F-4DE8-ACE6-0AE5E8BC8F53}" name="Валидация"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{62FBED35-58CE-4F2C-989E-161397CCA064}" name="Таблица3" displayName="Таблица3" ref="B1:M19" totalsRowShown="0">
+  <autoFilter ref="B1:M19" xr:uid="{62FBED35-58CE-4F2C-989E-161397CCA064}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:M19">
+    <sortCondition ref="C1:C19"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{37D4EB7D-4CB4-4718-84EB-47DD942FF56F}" name="Исх.номер" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{1608FF0E-FBE6-460C-93B2-7F447169011B}" name="Номер" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{AEE74F4A-5158-44DC-B403-2194E316215B}" name="Наименование" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{F044E068-606E-4BA1-8D16-875CD59D7278}" name="Количество" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{18782649-B69E-4BC2-8E0A-2359D739EF99}" name="Высота" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{B4853683-0BB6-4164-B2D1-C8DDAD368144}" name="Толщина" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{9E866E02-935A-43C4-8F50-263048ED79B3}" name="Состояние"/>
+    <tableColumn id="8" xr3:uid="{93E2C9D9-013F-412E-A263-DF6A151C004F}" name="Кустарник"/>
+    <tableColumn id="9" xr3:uid="{CB1FF289-802B-4F34-8BFD-39497A857AA4}" name="Позиция номера"/>
+    <tableColumn id="10" xr3:uid="{CD705EFD-0D41-4EEC-AF16-A18CF417C5D3}" name="Геометрия"/>
+    <tableColumn id="11" xr3:uid="{61CC6539-FA5B-4A6D-9C01-E230F0AB4B2C}" name="Действие"/>
+    <tableColumn id="12" xr3:uid="{D8B88C97-54AC-4837-B85F-61A454C96AAA}" name="Компенсационные выплаты"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9E069D16-DB68-43FD-BDE5-537A5BCC8218}" name="Таблица4" displayName="Таблица4" ref="A1:M3" totalsRowShown="0">
+  <autoFilter ref="A1:M3" xr:uid="{9E069D16-DB68-43FD-BDE5-537A5BCC8218}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M3">
+    <sortCondition ref="C1:C3"/>
+  </sortState>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{E1979B55-0413-428C-8250-366D0C27696F}" name="Индекс" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{7906E6BB-D6EA-409F-A822-05BABDF76F5D}" name="Исх.номер" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{CAB5102B-A0BC-434C-8069-5BA72C0C3B79}" name="Номер" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0401DDA8-C8B6-40AE-96FA-B84A90AEDB28}" name="Наименование" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{69C9D303-9CE9-4D01-8B50-DD2228BE6CB3}" name="Количество" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{3A143161-347A-4A92-B32B-B3ED3FEE8086}" name="Высота" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{CA5E2DF1-2777-4572-B87E-652D7B74BFBB}" name="Толщина" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{74CAE725-0D5B-4358-86AB-CAAEA02111E7}" name="Состояние"/>
+    <tableColumn id="9" xr3:uid="{A2BD55A3-F98E-41E8-84F4-ADD5D05D8590}" name="Кустарник"/>
+    <tableColumn id="10" xr3:uid="{9C06F7A6-81F4-426A-A3A3-F1E1E930571D}" name="Позиция номера"/>
+    <tableColumn id="11" xr3:uid="{71CD6C93-68BD-4FC2-834B-9CD8CF9EB846}" name="Геометрия"/>
+    <tableColumn id="12" xr3:uid="{F9754A0D-CA50-4F76-91D5-C705EA6ECC46}" name="Действие"/>
+    <tableColumn id="13" xr3:uid="{9A820847-8387-4712-B302-91C60D9983EF}" name="Компенсационные выплаты"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -986,7 +1126,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1188,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -1074,10 +1214,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -1103,10 +1243,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1123,19 +1263,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1152,19 +1292,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -1181,7 +1321,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1190,10 +1330,10 @@
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -1210,19 +1350,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -1239,19 +1379,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1268,19 +1408,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -1297,19 +1437,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1326,19 +1466,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -1355,22 +1495,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1384,19 +1524,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -1413,19 +1553,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -1442,19 +1582,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -1471,16 +1611,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
@@ -1500,16 +1640,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -1529,19 +1669,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -1558,19 +1698,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -1587,19 +1727,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -1616,19 +1756,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -1645,19 +1785,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
@@ -1674,19 +1814,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -1703,19 +1843,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -1732,19 +1872,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
@@ -1761,19 +1901,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -1817,16 +1957,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1834,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,16 +1991,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1868,16 +2008,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1885,16 +2025,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1902,16 +2042,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,16 +2059,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1936,16 +2076,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1953,16 +2093,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1970,16 +2110,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1987,16 +2127,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,16 +2144,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2021,16 +2161,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2038,16 +2178,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2055,16 +2195,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2072,16 +2212,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2089,16 +2229,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2106,16 +2246,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2123,16 +2263,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2140,16 +2280,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2157,16 +2297,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2174,16 +2314,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2191,16 +2331,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2208,16 +2348,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2225,16 +2365,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2242,16 +2382,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2259,16 +2399,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2276,16 +2416,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F28">
         <v>72.187968681300262</v>
@@ -2296,16 +2436,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F29">
         <v>72.187968681300262</v>
@@ -2322,10 +2462,10 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F30">
         <v>13.829652249662766</v>
@@ -2342,10 +2482,10 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F31">
         <v>13.829652249662766</v>
@@ -2356,16 +2496,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F32">
         <v>20.634346496409641</v>
@@ -2376,16 +2516,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F33">
         <v>6.2361215361950615</v>
@@ -2396,16 +2536,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F34">
         <v>13.404293070651994</v>
@@ -2416,16 +2556,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F35">
         <v>13.404293070651969</v>
@@ -2444,14 +2584,16 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2481,15 +2623,15 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -2500,11 +2642,11 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.05</v>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -2513,15 +2655,15 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -2532,11 +2674,11 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.08</v>
+      <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
@@ -2545,18 +2687,18 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
@@ -2564,11 +2706,11 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4</v>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
@@ -2577,18 +2719,18 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
@@ -2596,11 +2738,11 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
@@ -2609,94 +2751,94 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.05</v>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
@@ -2705,30 +2847,30 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.05</v>
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -2737,283 +2879,283 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>128</v>
-      </c>
-      <c r="J16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>130</v>
-      </c>
-      <c r="J17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.5</v>
+      <c r="E18" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -3025,27 +3167,27 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.5</v>
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
@@ -3057,30 +3199,30 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.01</v>
+      <c r="E20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
@@ -3089,30 +3231,30 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.01</v>
+      <c r="E21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
@@ -3121,30 +3263,30 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.01</v>
+      <c r="E22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>13</v>
@@ -3153,31 +3295,31 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.01</v>
-      </c>
       <c r="G23" s="1" t="s">
         <v>13</v>
       </c>
@@ -3185,18 +3327,18 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>17</v>
@@ -3204,11 +3346,11 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1">
-        <v>5</v>
+      <c r="E24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>13</v>
@@ -3217,18 +3359,18 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="J24" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>17</v>
@@ -3236,11 +3378,11 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="1">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1">
-        <v>4</v>
+      <c r="E25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>13</v>
@@ -3249,18 +3391,18 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J25" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>17</v>
@@ -3268,11 +3410,11 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="1">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1">
-        <v>8</v>
+      <c r="E26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
@@ -3281,18 +3423,18 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J26" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>17</v>
@@ -3300,11 +3442,11 @@
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="1">
-        <v>5</v>
-      </c>
-      <c r="F27" s="1">
-        <v>8</v>
+      <c r="E27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>13</v>
@@ -3313,30 +3455,30 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="J27" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.01</v>
+      <c r="E28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>13</v>
@@ -3345,30 +3487,30 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="J28" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.01</v>
+      <c r="E29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>13</v>
@@ -3377,31 +3519,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="J29" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="1">
-        <v>3</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.01</v>
-      </c>
       <c r="G30" s="1" t="s">
         <v>13</v>
       </c>
@@ -3409,30 +3551,30 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="J30" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>13</v>
@@ -3441,30 +3583,30 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="J31" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>13</v>
@@ -3473,30 +3615,30 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J32" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.01</v>
+      <c r="E33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
@@ -3505,30 +3647,30 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J33" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="E34" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.01</v>
+      <c r="E34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>13</v>
@@ -3537,31 +3679,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J34" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.03</v>
-      </c>
       <c r="G35" s="1" t="s">
         <v>13</v>
       </c>
@@ -3569,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="J35" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3604,7 +3746,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3612,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3623,10 +3765,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3634,10 +3776,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3666,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3674,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3682,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3692,30 +3834,38 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF661B09-FF86-4E7A-962A-4A20F396E77A}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="46.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -3736,33 +3886,39 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>183</v>
+        <v>90</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="G2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3771,33 +3927,39 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="L2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>183</v>
+        <v>92</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -3806,33 +3968,39 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>183</v>
+        <v>93</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -3841,33 +4009,39 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>183</v>
+        <v>51</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -3881,343 +4055,403 @@
       <c r="K5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>170</v>
+      </c>
+      <c r="M6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F8" s="1">
         <v>2.5</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" t="s">
+        <v>170</v>
+      </c>
+      <c r="M11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>170</v>
+      </c>
+      <c r="M12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>170</v>
+      </c>
+      <c r="M13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>151</v>
-      </c>
-      <c r="K9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>154</v>
-      </c>
-      <c r="K10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" t="s">
+        <v>170</v>
+      </c>
+      <c r="M14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>101</v>
-      </c>
-      <c r="K12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="1">
         <v>0.4</v>
       </c>
-      <c r="G15" s="1">
-        <v>0.01</v>
+      <c r="G15" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -4226,104 +4460,122 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="L15" t="s">
+        <v>170</v>
+      </c>
+      <c r="M15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>117</v>
-      </c>
-      <c r="K16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>119</v>
-      </c>
-      <c r="K17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.01</v>
-      </c>
       <c r="H18" t="s">
         <v>13</v>
       </c>
@@ -4331,33 +4583,39 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="L18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>183</v>
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="F19" s="1">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1">
-        <v>0.01</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -4366,42 +4624,60 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="K19" t="s">
-        <v>119</v>
+        <v>145</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAED620-2656-4FCC-BF7A-F23211E43DA5}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -4422,33 +4698,39 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>183</v>
+      <c r="C2" s="1">
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -4457,33 +4739,39 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="K2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>183</v>
+      <c r="C3" s="1">
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F3" s="1">
         <v>2.5</v>
       </c>
       <c r="G3" s="1">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -4492,476 +4780,560 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="1">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" t="s">
+        <v>165</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="1">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K3" t="s">
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="K15" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>160</v>
-      </c>
-      <c r="K5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="L15" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>164</v>
-      </c>
-      <c r="K11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>168</v>
-      </c>
-      <c r="K12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>174</v>
-      </c>
-      <c r="K14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>98</v>
-      </c>
-      <c r="K15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="1">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>5</v>
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>183</v>
+        <v>99</v>
+      </c>
+      <c r="C17" s="1">
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>17</v>
@@ -4973,7 +5345,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="1">
-        <v>4</v>
+        <v>800</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -4982,21 +5354,27 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>183</v>
+        <v>97</v>
+      </c>
+      <c r="C18" s="1">
+        <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>17</v>
@@ -5008,7 +5386,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="1">
-        <v>8</v>
+        <v>400</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -5017,33 +5395,39 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>183</v>
+        <v>95</v>
+      </c>
+      <c r="C19" s="1">
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>176</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="G19" s="1">
-        <v>0.03</v>
+        <v>500</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -5052,10 +5436,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>96</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5068,14 +5458,24 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -5083,10 +5483,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -5107,16 +5507,16 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="M1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5124,13 +5524,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1">
-        <v>400</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -5139,7 +5539,7 @@
         <v>0.4</v>
       </c>
       <c r="G2" s="1">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -5148,16 +5548,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -5165,13 +5565,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1">
-        <v>401</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -5180,7 +5580,7 @@
         <v>0.4</v>
       </c>
       <c r="G3" s="1">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -5189,19 +5589,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>